--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Desktop\暂时文件\博客存储\面包多\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4B204-A171-4EB2-9547-3CAF1A1E54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBBE7BA-4833-4924-A15F-C47BD16481D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -241,12 +241,105 @@
     <t>输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>POP_10k</t>
+  </si>
+  <si>
+    <t>常住人口</t>
+  </si>
+  <si>
+    <t>万人</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>GDP_100m</t>
+  </si>
+  <si>
+    <t>地区 GDP</t>
+  </si>
+  <si>
+    <t>亿元</t>
+  </si>
+  <si>
+    <t>URB_rate</t>
+  </si>
+  <si>
+    <t>城镇化率</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>IVA_100m</t>
+  </si>
+  <si>
+    <t>工业增加值</t>
+  </si>
+  <si>
+    <t>IWI_m3_per_10kYuan</t>
+  </si>
+  <si>
+    <t>工业用水强度</t>
+  </si>
+  <si>
+    <t>m³/万元</t>
+  </si>
+  <si>
+    <t>IE_rate</t>
+  </si>
+  <si>
+    <t>有效灌溉率</t>
+  </si>
+  <si>
+    <t>WP_yuan_per_m3</t>
+  </si>
+  <si>
+    <t>综合水价</t>
+  </si>
+  <si>
+    <t>元/m³</t>
+  </si>
+  <si>
+    <t>输入（政策变量）</t>
+  </si>
+  <si>
+    <t>P_mm</t>
+  </si>
+  <si>
+    <t>年降水量</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>WA_100m3</t>
+  </si>
+  <si>
+    <t>可供水量</t>
+  </si>
+  <si>
+    <t>亿 m³</t>
+  </si>
+  <si>
+    <t>输入（约束）</t>
+  </si>
+  <si>
+    <t>WD_100m3</t>
+  </si>
+  <si>
+    <t>总需水量</t>
+  </si>
+  <si>
+    <t>输出（预测目标）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +374,14 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +413,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,16 +700,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="13.08203125" style="1"/>
+    <col min="1" max="16384" width="13.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>273</v>
       </c>
@@ -654,7 +763,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>163</v>
       </c>
@@ -680,7 +789,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>162</v>
       </c>
@@ -706,7 +815,7 @@
         <v>41.81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>162</v>
       </c>
@@ -732,7 +841,7 @@
         <v>42.08</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>154</v>
       </c>
@@ -758,7 +867,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>147</v>
       </c>
@@ -784,7 +893,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>152</v>
       </c>
@@ -810,7 +919,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>145</v>
       </c>
@@ -836,7 +945,7 @@
         <v>36.590000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>152</v>
       </c>
@@ -862,7 +971,7 @@
         <v>32.71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>304</v>
       </c>
@@ -888,7 +997,7 @@
         <v>38.46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>145</v>
       </c>
@@ -914,7 +1023,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>148</v>
       </c>
@@ -940,7 +1049,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>142</v>
       </c>
@@ -966,7 +1075,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>354</v>
       </c>
@@ -992,7 +1101,7 @@
         <v>33.909999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>374</v>
       </c>
@@ -1018,7 +1127,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>159</v>
       </c>
@@ -1044,7 +1153,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>153</v>
       </c>
@@ -1070,7 +1179,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>295</v>
       </c>
@@ -1096,7 +1205,7 @@
         <v>41.01</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>310</v>
       </c>
@@ -1122,7 +1231,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>296</v>
       </c>
@@ -1148,7 +1257,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>305</v>
       </c>
@@ -1174,7 +1283,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>310</v>
       </c>
@@ -1200,7 +1309,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>148</v>
       </c>
@@ -1226,7 +1335,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>146</v>
       </c>
@@ -1252,7 +1361,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>142</v>
       </c>
@@ -1278,7 +1387,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>140</v>
       </c>
@@ -1304,7 +1413,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>308</v>
       </c>
@@ -1330,7 +1439,7 @@
         <v>42.08</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>295</v>
       </c>
@@ -1356,7 +1465,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>298</v>
       </c>
@@ -1382,7 +1491,7 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>314</v>
       </c>
@@ -1408,7 +1517,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>321</v>
       </c>
@@ -1434,7 +1543,7 @@
         <v>45.82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>349</v>
       </c>
@@ -1460,7 +1569,7 @@
         <v>43.95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>366</v>
       </c>
@@ -1486,7 +1595,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>274</v>
       </c>
@@ -1512,7 +1621,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>137</v>
       </c>
@@ -1538,7 +1647,7 @@
         <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>275</v>
       </c>
@@ -1564,7 +1673,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>252</v>
       </c>
@@ -1590,7 +1699,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>165</v>
       </c>
@@ -1616,7 +1725,7 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>158</v>
       </c>
@@ -1642,7 +1751,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>156</v>
       </c>
@@ -1668,7 +1777,7 @@
         <v>33.78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>145</v>
       </c>
@@ -1694,7 +1803,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>154</v>
       </c>
@@ -1720,7 +1829,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>160</v>
       </c>
@@ -1746,7 +1855,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>291</v>
       </c>
@@ -1772,7 +1881,7 @@
         <v>27.62</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>298</v>
       </c>
@@ -1798,7 +1907,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>318</v>
       </c>
@@ -1824,7 +1933,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>280</v>
       </c>
@@ -1850,7 +1959,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>287</v>
       </c>
@@ -1876,7 +1985,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>332</v>
       </c>
@@ -1902,7 +2011,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>326</v>
       </c>
@@ -1928,7 +2037,7 @@
         <v>52.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>320</v>
       </c>
@@ -1954,7 +2063,7 @@
         <v>45.69</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>342</v>
       </c>
@@ -1980,7 +2089,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>356</v>
       </c>
@@ -2006,7 +2115,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>309</v>
       </c>
@@ -2032,7 +2141,7 @@
         <v>38.590000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>322</v>
       </c>
@@ -2058,7 +2167,7 @@
         <v>45.42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>159</v>
       </c>
@@ -2084,7 +2193,7 @@
         <v>19.190000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>307</v>
       </c>
@@ -2110,7 +2219,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>313</v>
       </c>
@@ -2136,7 +2245,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>143</v>
       </c>
@@ -2162,7 +2271,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>140</v>
       </c>
@@ -2188,7 +2297,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>278</v>
       </c>
@@ -2214,7 +2323,7 @@
         <v>32.71</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>288</v>
       </c>
@@ -2240,7 +2349,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>299</v>
       </c>
@@ -2266,7 +2375,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>291</v>
       </c>
@@ -2292,7 +2401,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>265</v>
       </c>
@@ -2318,7 +2427,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>159</v>
       </c>
@@ -2344,7 +2453,7 @@
         <v>35.39</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>160</v>
       </c>
@@ -2370,7 +2479,7 @@
         <v>37.659999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>166</v>
       </c>
@@ -2396,7 +2505,7 @@
         <v>40.340000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>320</v>
       </c>
@@ -2422,7 +2531,7 @@
         <v>46.36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>336</v>
       </c>
@@ -2448,7 +2557,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>276</v>
       </c>
@@ -2474,7 +2583,7 @@
         <v>44.08</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>313</v>
       </c>
@@ -2500,7 +2609,7 @@
         <v>28.16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>322</v>
       </c>
@@ -2526,7 +2635,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>294</v>
       </c>
@@ -2552,7 +2661,7 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>146</v>
       </c>
@@ -2578,7 +2687,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>149</v>
       </c>
@@ -2604,7 +2713,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>159</v>
       </c>
@@ -2630,7 +2739,7 @@
         <v>32.57</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>261</v>
       </c>
@@ -2656,7 +2765,7 @@
         <v>34.18</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>140</v>
       </c>
@@ -2682,7 +2791,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>141.1</v>
       </c>
@@ -2708,7 +2817,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>140.1</v>
       </c>
@@ -2734,7 +2843,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>140.1</v>
       </c>
@@ -2760,7 +2869,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>160.19999999999999</v>
       </c>
@@ -2786,7 +2895,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>140.19999999999999</v>
       </c>
@@ -2812,7 +2921,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>140.19999999999999</v>
       </c>
@@ -2838,7 +2947,7 @@
         <v>33.78</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>140.5</v>
       </c>
@@ -2864,7 +2973,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>143.30000000000001</v>
       </c>
@@ -2890,7 +2999,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>194.3</v>
       </c>
@@ -2916,7 +3025,7 @@
         <v>38.46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>150.4</v>
       </c>
@@ -2942,7 +3051,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>150.30000000000001</v>
       </c>
@@ -2968,7 +3077,7 @@
         <v>38.19</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>155.4</v>
       </c>
@@ -2994,7 +3103,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>165.3</v>
       </c>
@@ -3020,7 +3129,7 @@
         <v>32.840000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>303.8</v>
       </c>
@@ -3046,7 +3155,7 @@
         <v>44.48</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>172</v>
       </c>
@@ -3072,7 +3181,7 @@
         <v>41.54</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>172.8</v>
       </c>
@@ -3098,7 +3207,7 @@
         <v>41.81</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>184.3</v>
       </c>
@@ -3124,7 +3233,7 @@
         <v>41.01</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>215.6</v>
       </c>
@@ -3150,7 +3259,7 @@
         <v>39.130000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>295.3</v>
       </c>
@@ -3176,7 +3285,7 @@
         <v>44.08</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>248.3</v>
       </c>
@@ -3202,7 +3311,7 @@
         <v>49.97</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>248</v>
       </c>
@@ -3228,7 +3337,7 @@
         <v>50.23</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>258.8</v>
       </c>
@@ -3254,7 +3363,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>297.10000000000002</v>
       </c>
@@ -3280,7 +3389,7 @@
         <v>49.17</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>348.7</v>
       </c>
@@ -3305,6 +3414,197 @@
       <c r="H104" s="1">
         <v>48.77</v>
       </c>
+    </row>
+    <row r="116" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBBE7BA-4833-4924-A15F-C47BD16481D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E1461-6DB4-45EC-A7D1-D86032B3F4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="3300" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <r>
       <rPr>
@@ -242,97 +242,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POP_10k</t>
-  </si>
-  <si>
     <t>常住人口</t>
   </si>
   <si>
     <t>万人</t>
   </si>
   <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>GDP_100m</t>
-  </si>
-  <si>
-    <t>地区 GDP</t>
-  </si>
-  <si>
     <t>亿元</t>
   </si>
   <si>
-    <t>URB_rate</t>
-  </si>
-  <si>
-    <t>城镇化率</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>IVA_100m</t>
-  </si>
-  <si>
-    <t>工业增加值</t>
-  </si>
-  <si>
-    <t>IWI_m3_per_10kYuan</t>
-  </si>
-  <si>
-    <t>工业用水强度</t>
-  </si>
-  <si>
     <t>m³/万元</t>
   </si>
   <si>
-    <t>IE_rate</t>
-  </si>
-  <si>
-    <t>有效灌溉率</t>
-  </si>
-  <si>
-    <t>WP_yuan_per_m3</t>
-  </si>
-  <si>
-    <t>综合水价</t>
-  </si>
-  <si>
-    <t>元/m³</t>
-  </si>
-  <si>
-    <t>输入（政策变量）</t>
-  </si>
-  <si>
-    <t>P_mm</t>
-  </si>
-  <si>
-    <t>年降水量</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>WA_100m3</t>
-  </si>
-  <si>
-    <t>可供水量</t>
-  </si>
-  <si>
-    <t>亿 m³</t>
-  </si>
-  <si>
-    <t>输入（约束）</t>
-  </si>
-  <si>
-    <t>WD_100m3</t>
-  </si>
-  <si>
-    <t>总需水量</t>
-  </si>
-  <si>
-    <t>输出（预测目标）</t>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>变量名称</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>含义说明</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+  </si>
+  <si>
+    <t>是否用于不确定性分析</t>
+  </si>
+  <si>
+    <t>X1X_1X1​</t>
+  </si>
+  <si>
+    <t>规模变量</t>
+  </si>
+  <si>
+    <t>反映区域生活用水的刚性需求规模，是经济社会需水变化的基础约束条件</t>
+  </si>
+  <si>
+    <t>统计年鉴</t>
+  </si>
+  <si>
+    <t>是（情景扰动）</t>
+  </si>
+  <si>
+    <t>第一产业增加值</t>
+  </si>
+  <si>
+    <t>X2X_2X2​</t>
+  </si>
+  <si>
+    <t>规模/结构变量</t>
+  </si>
+  <si>
+    <t>表征农业经济活动水平，反映农业生产结构及投入强度变化</t>
+  </si>
+  <si>
+    <t>第二产业增加值</t>
+  </si>
+  <si>
+    <t>X3X_3X3​</t>
+  </si>
+  <si>
+    <t>表征工业经济活动规模，对工业用水需求具有直接影响</t>
+  </si>
+  <si>
+    <t>第三产业增加值</t>
+  </si>
+  <si>
+    <t>X4X_4X4​</t>
+  </si>
+  <si>
+    <t>表征服务业发展水平，反映非工业经济活动对用水需求的影响</t>
+  </si>
+  <si>
+    <t>城镇生活人均用水量</t>
+  </si>
+  <si>
+    <t>X5X_5X5​</t>
+  </si>
+  <si>
+    <t>L/(人·d)</t>
+  </si>
+  <si>
+    <t>行为/效率变量</t>
+  </si>
+  <si>
+    <t>反映城镇居民生活用水行为与节水水平变化</t>
+  </si>
+  <si>
+    <t>水资源公报</t>
+  </si>
+  <si>
+    <t>是（参数扰动）</t>
+  </si>
+  <si>
+    <t>农村生活人均用水量</t>
+  </si>
+  <si>
+    <t>X6X_6X6​</t>
+  </si>
+  <si>
+    <t>反映农村居民生活用水特征及生活方式变化</t>
+  </si>
+  <si>
+    <t>农作物播种面积</t>
+  </si>
+  <si>
+    <t>X7X_7X7​</t>
+  </si>
+  <si>
+    <t>万 hm²</t>
+  </si>
+  <si>
+    <t>表征农业生产物理规模，是农业需水量的重要基础指标</t>
+  </si>
+  <si>
+    <t>亩均灌溉用水量</t>
+  </si>
+  <si>
+    <t>X8X_8X8​</t>
+  </si>
+  <si>
+    <t>m³/亩</t>
+  </si>
+  <si>
+    <t>效率变量</t>
+  </si>
+  <si>
+    <t>反映农业灌溉用水效率及节水技术水平</t>
+  </si>
+  <si>
+    <t>万元工业增加值用水量</t>
+  </si>
+  <si>
+    <t>X9X_9X9​</t>
+  </si>
+  <si>
+    <t>表征工业用水强度，体现工业节水与技术进步水平</t>
   </si>
 </sst>
 </file>
@@ -418,7 +472,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3415,161 +3469,261 @@
         <v>48.77</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4">
+        <v>3</v>
+      </c>
+      <c r="E116" s="4">
+        <v>4</v>
+      </c>
+      <c r="F116" s="4">
+        <v>5</v>
+      </c>
+      <c r="G116" s="4">
+        <v>6</v>
+      </c>
+      <c r="H116" s="4">
+        <v>7</v>
+      </c>
+      <c r="I116" s="4">
         <v>8</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="J116" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="B119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="C123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
@@ -3586,11 +3740,14 @@
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
@@ -3598,13 +3755,269 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="5"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>2</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>3</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>5</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>6</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>7</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>8</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>9</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48827BFE-276A-47FE-A0D2-6DA8CFECEE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD54F0A-0386-4CE1-A7D2-15786CF635E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>常住人口</t>
   </si>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>表征工业用水强度，体现工业节水与技术进步水平</t>
-  </si>
-  <si>
-    <t>需水量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -295,104 +291,30 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>X</t>
-    </r>
+    <t>地区生产总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常住总人口</t>
+  </si>
+  <si>
+    <t>亩均灌溉用水量（m³/亩）</t>
+  </si>
+  <si>
+    <t>万元工业增加值用水量（m³/万元）</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="1"/>
+        <charset val="134"/>
       </rPr>
-      <t>6</t>
+      <t>需水量</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +390,19 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -510,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,12 +459,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,9 +468,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -551,29 +477,29 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,1087 +781,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="13.125" style="1"/>
+    <col min="1" max="5" width="31.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="13.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>7522.95</v>
       </c>
-      <c r="B2" s="5">
-        <v>48.2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1300.4000000000001</v>
+      <c r="B2" s="15">
+        <v>14823.13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7668.98</v>
       </c>
       <c r="D2" s="6">
-        <v>8325.76</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5196.97</v>
-      </c>
-      <c r="F2" s="7">
-        <v>7668.98</v>
-      </c>
-      <c r="G2" s="8">
         <v>507.5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="E2" s="7">
         <v>33.9</v>
       </c>
-      <c r="I2" s="10">
-        <v>707.1</v>
-      </c>
-      <c r="J2" s="20">
+      <c r="F2" s="13">
         <v>525.6</v>
       </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>7588.24</v>
       </c>
-      <c r="B3" s="5">
-        <v>50.5</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1390.2</v>
+      <c r="B3" s="15">
+        <v>18121.330000000002</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7641.2</v>
       </c>
       <c r="D3" s="6">
-        <v>10234.06</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6497.07</v>
-      </c>
-      <c r="F3" s="7">
-        <v>7641.2</v>
-      </c>
-      <c r="G3" s="8">
         <v>499.9</v>
       </c>
-      <c r="H3" s="9">
+      <c r="E3" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="I3" s="10">
-        <v>697.4</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="F3" s="13">
         <v>519.70000000000005</v>
       </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>7655.66</v>
       </c>
-      <c r="B4" s="5">
-        <v>51.9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1468.29</v>
+      <c r="B4" s="15">
+        <v>21240.79</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7385.16</v>
       </c>
       <c r="D4" s="6">
-        <v>11991.11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7781.39</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7385.16</v>
-      </c>
-      <c r="G4" s="8">
         <v>492.3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="E4" s="7">
         <v>30.5</v>
       </c>
-      <c r="I4" s="10">
-        <v>727.3</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="F4" s="13">
         <v>546.4</v>
       </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>7723.13</v>
       </c>
-      <c r="B5" s="5">
-        <v>53.2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1715.56</v>
+      <c r="B5" s="15">
+        <v>25988.36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7362.79</v>
       </c>
       <c r="D5" s="6">
-        <v>14497.42</v>
-      </c>
-      <c r="E5" s="6">
-        <v>9775.3799999999992</v>
-      </c>
-      <c r="F5" s="7">
-        <v>7362.79</v>
-      </c>
-      <c r="G5" s="8">
         <v>484.7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="E5" s="7">
         <v>28.8</v>
       </c>
-      <c r="I5" s="10">
-        <v>735.9</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="F5" s="13">
         <v>558.29999999999995</v>
       </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>7762.48</v>
       </c>
-      <c r="B6" s="5">
-        <v>54.3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1988.17</v>
+      <c r="B6" s="15">
+        <v>30945.45</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7494.85</v>
       </c>
       <c r="D6" s="6">
-        <v>17051.099999999999</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11906.18</v>
-      </c>
-      <c r="F6" s="7">
-        <v>7494.85</v>
-      </c>
-      <c r="G6" s="8">
         <v>477.1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="E6" s="7">
         <v>27.1</v>
       </c>
-      <c r="I6" s="10">
-        <v>729.7</v>
-      </c>
-      <c r="J6" s="20">
+      <c r="F6" s="13">
         <v>558.29999999999995</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7810.27</v>
       </c>
-      <c r="B7" s="5">
-        <v>55.6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2143.62</v>
+      <c r="B7" s="15">
+        <v>34471.67</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7542.63</v>
       </c>
       <c r="D7" s="6">
-        <v>18667.16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>13660.89</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7542.63</v>
-      </c>
-      <c r="G7" s="8">
         <v>469.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="E7" s="7">
         <v>25.4</v>
       </c>
-      <c r="I7" s="10">
-        <v>713.2</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="F7" s="13">
         <v>549.20000000000005</v>
       </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7869.34</v>
       </c>
-      <c r="B8" s="5">
-        <v>60.6</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2409.2399999999998</v>
-      </c>
-      <c r="D8" s="6">
-        <v>21853.599999999999</v>
-      </c>
-      <c r="E8" s="6">
-        <v>17121.03</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="B8" s="15">
+        <v>41383.870000000003</v>
+      </c>
+      <c r="C8" s="5">
         <v>7616.96</v>
       </c>
-      <c r="G8" s="11">
+      <c r="D8" s="8">
         <v>463</v>
       </c>
-      <c r="H8" s="12">
+      <c r="E8" s="9">
         <v>24</v>
       </c>
-      <c r="I8" s="10">
-        <v>704.4</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="F8" s="14">
         <v>552.20000000000005</v>
       </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8022.99</v>
       </c>
-      <c r="B9" s="5">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2908.78</v>
-      </c>
-      <c r="D9" s="6">
-        <v>25231.21</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20699.22</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="B9" s="15">
+        <v>48839.21</v>
+      </c>
+      <c r="C9" s="5">
         <v>7646.43</v>
       </c>
-      <c r="G9" s="11">
+      <c r="D9" s="8">
         <v>461</v>
       </c>
-      <c r="H9" s="12">
+      <c r="E9" s="9">
         <v>22</v>
       </c>
-      <c r="I9" s="10">
-        <v>705.4</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="F9" s="14">
         <v>556.20000000000005</v>
       </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8119.81</v>
       </c>
-      <c r="B10" s="5">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3241.42</v>
-      </c>
-      <c r="D10" s="6">
-        <v>27150.75</v>
-      </c>
-      <c r="E10" s="6">
-        <v>23309.75</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="B10" s="15">
+        <v>53701.919999999998</v>
+      </c>
+      <c r="C10" s="5">
         <v>7651.38</v>
       </c>
-      <c r="G10" s="11">
+      <c r="D10" s="8">
         <v>430</v>
       </c>
-      <c r="H10" s="12">
+      <c r="E10" s="9">
         <v>19</v>
       </c>
-      <c r="I10" s="10">
-        <v>698.2</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="F10" s="14">
         <v>552.20000000000005</v>
       </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8192.44</v>
       </c>
-      <c r="B11" s="5">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3447.49</v>
-      </c>
-      <c r="D11" s="6">
-        <v>29149.42</v>
-      </c>
-      <c r="E11" s="6">
-        <v>26752.5</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="B11" s="15">
+        <v>59349.41</v>
+      </c>
+      <c r="C11" s="5">
         <v>7661</v>
       </c>
-      <c r="G11" s="11">
+      <c r="D11" s="8">
         <v>448</v>
       </c>
-      <c r="H11" s="12">
+      <c r="E11" s="9">
         <v>19.3</v>
       </c>
-      <c r="I11" s="10">
-        <v>727.3</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="F11" s="14">
         <v>498.9</v>
       </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8281.09</v>
       </c>
-      <c r="B12" s="5">
-        <v>65.7</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3607.4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>31048.84</v>
-      </c>
-      <c r="E12" s="6">
-        <v>30174.27</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="B12" s="15">
+        <v>64830.51</v>
+      </c>
+      <c r="C12" s="5">
         <v>7672.27</v>
       </c>
-      <c r="G12" s="11">
+      <c r="D12" s="8">
         <v>433.3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="E12" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="I12" s="10">
-        <v>743.8</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="F12" s="14">
         <v>480.7</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8315.11</v>
       </c>
-      <c r="B13" s="5">
-        <v>67.5</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3952.47</v>
-      </c>
-      <c r="D13" s="6">
-        <v>33371.769999999997</v>
-      </c>
-      <c r="E13" s="6">
-        <v>33931.69</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="B13" s="15">
+        <v>71255.929999999993</v>
+      </c>
+      <c r="C13" s="5">
         <v>7737.75</v>
       </c>
-      <c r="G13" s="11">
+      <c r="D13" s="8">
         <v>402</v>
       </c>
-      <c r="H13" s="12">
+      <c r="E13" s="9">
         <v>16.5</v>
       </c>
-      <c r="I13" s="10">
-        <v>721</v>
-      </c>
-      <c r="J13" s="21">
+      <c r="F13" s="14">
         <v>460.6</v>
       </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>8381.4699999999993</v>
       </c>
-      <c r="B14" s="5">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4039.75</v>
-      </c>
-      <c r="D14" s="6">
-        <v>35041.53</v>
-      </c>
-      <c r="E14" s="6">
-        <v>38269.57</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="B14" s="15">
+        <v>77350.850000000006</v>
+      </c>
+      <c r="C14" s="5">
         <v>7639.92</v>
       </c>
-      <c r="G14" s="11">
+      <c r="D14" s="8">
         <v>410</v>
       </c>
-      <c r="H14" s="12">
+      <c r="E14" s="9">
         <v>41.2</v>
       </c>
-      <c r="I14" s="10">
-        <v>722.9</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="F14" s="14">
         <v>453.2</v>
       </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>8423.5</v>
       </c>
-      <c r="B15" s="5">
-        <v>70.2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4045.16</v>
-      </c>
-      <c r="D15" s="6">
-        <v>39124.11</v>
-      </c>
-      <c r="E15" s="6">
-        <v>42700.49</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="B15" s="15">
+        <v>85869.759999999995</v>
+      </c>
+      <c r="C15" s="5">
         <v>7556.4</v>
       </c>
-      <c r="G15" s="11">
+      <c r="D15" s="8">
         <v>427</v>
       </c>
-      <c r="H15" s="12">
+      <c r="E15" s="9">
         <v>36.700000000000003</v>
       </c>
-      <c r="I15" s="10">
-        <v>737.8</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="F15" s="14">
         <v>465.9</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>8446.19</v>
       </c>
-      <c r="B16" s="5">
-        <v>71.2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4141.71</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42129.37</v>
-      </c>
-      <c r="E16" s="6">
-        <v>46936.47</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="B16" s="15">
+        <v>93207.55</v>
+      </c>
+      <c r="C16" s="5">
         <v>7520.23</v>
       </c>
-      <c r="G16" s="11">
+      <c r="D16" s="8">
         <v>429</v>
       </c>
-      <c r="H16" s="12">
+      <c r="E16" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="I16" s="10">
-        <v>736.3</v>
-      </c>
-      <c r="J16" s="21">
+      <c r="F16" s="14">
         <v>460.2</v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8469.09</v>
       </c>
-      <c r="B17" s="5">
-        <v>72.5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4297.24</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43507.53</v>
-      </c>
-      <c r="E17" s="6">
-        <v>50852.05</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="B17" s="15">
+        <v>98656.82</v>
+      </c>
+      <c r="C17" s="5">
         <v>7442.63</v>
       </c>
-      <c r="G17" s="11">
+      <c r="D17" s="8">
         <v>474.7</v>
       </c>
-      <c r="H17" s="12">
+      <c r="E17" s="9">
         <v>32.4</v>
       </c>
-      <c r="I17" s="10">
-        <v>768.1</v>
-      </c>
-      <c r="J17" s="21">
+      <c r="F17" s="14">
         <v>493.4</v>
       </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>8477.26</v>
       </c>
-      <c r="B18" s="5">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4537.58</v>
-      </c>
-      <c r="D18" s="6">
-        <v>44631.25</v>
-      </c>
-      <c r="E18" s="6">
-        <v>53638.85</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="B18" s="15">
+        <v>102807.67999999999</v>
+      </c>
+      <c r="C18" s="5">
         <v>7478.39</v>
       </c>
-      <c r="G18" s="11">
+      <c r="D18" s="8">
         <v>423.1</v>
       </c>
-      <c r="H18" s="12">
+      <c r="E18" s="9">
         <v>31.1</v>
       </c>
-      <c r="I18" s="10">
-        <v>534</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="F18" s="14">
         <v>452.7</v>
       </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>8505.4</v>
       </c>
-      <c r="B19" s="5">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4721.0200000000004</v>
-      </c>
-      <c r="D19" s="6">
-        <v>52678.69</v>
-      </c>
-      <c r="E19" s="6">
-        <v>59992.65</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="B19" s="15">
+        <v>117392.36</v>
+      </c>
+      <c r="C19" s="5">
         <v>7514.45</v>
       </c>
-      <c r="G19" s="11">
+      <c r="D19" s="8">
         <v>395.1</v>
       </c>
-      <c r="H19" s="12">
+      <c r="E19" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="I19" s="10">
-        <v>667.3</v>
-      </c>
-      <c r="J19" s="21">
+      <c r="F19" s="14">
         <v>567.6</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>8515</v>
       </c>
-      <c r="B20" s="14">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C20" s="15">
-        <v>4964.16</v>
-      </c>
-      <c r="D20" s="15">
-        <v>54886.080000000002</v>
-      </c>
-      <c r="E20" s="15">
-        <v>62239.040000000001</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="B20" s="16">
+        <v>122089.28</v>
+      </c>
+      <c r="C20" s="5">
         <v>7534.24</v>
       </c>
-      <c r="G20" s="11">
+      <c r="D20" s="8">
         <v>476.1</v>
       </c>
-      <c r="H20" s="12">
+      <c r="E20" s="9">
         <v>17.8</v>
       </c>
-      <c r="I20" s="10">
-        <v>718.5</v>
-      </c>
-      <c r="J20" s="21">
+      <c r="F20" s="14">
         <v>611.79999999999995</v>
       </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>8526</v>
       </c>
-      <c r="B21" s="14">
-        <v>75</v>
-      </c>
-      <c r="C21" s="15">
-        <v>5075.8</v>
-      </c>
-      <c r="D21" s="15">
-        <v>56909.66</v>
-      </c>
-      <c r="E21" s="15">
-        <v>66236.7</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="B21" s="16">
+        <v>128222.16</v>
+      </c>
+      <c r="C21" s="5">
         <v>7589.96</v>
       </c>
-      <c r="G21" s="11">
+      <c r="D21" s="8">
         <v>400.2</v>
       </c>
-      <c r="H21" s="12">
+      <c r="E21" s="9">
         <v>17.7</v>
       </c>
-      <c r="I21" s="10">
-        <v>670.2</v>
-      </c>
-      <c r="J21" s="21">
+      <c r="F21" s="14">
         <v>571.4</v>
       </c>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
+      <c r="F115" s="2">
+        <v>5</v>
+      </c>
+      <c r="G115" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="2">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="2">
-        <v>4</v>
-      </c>
-      <c r="F116" s="2">
-        <v>5</v>
-      </c>
-      <c r="G116" s="2">
-        <v>6</v>
-      </c>
-      <c r="H116" s="2">
-        <v>7</v>
-      </c>
-      <c r="I116" s="2">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J116" s="2">
+      <c r="B119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>2</v>
@@ -1944,50 +1550,38 @@
         <v>13</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -1996,117 +1590,67 @@
         <v>30</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>9</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F137" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD54F0A-0386-4CE1-A7D2-15786CF635E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12B54A-95F3-4DDB-9B18-72B7CCC281EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>常住人口</t>
   </si>
@@ -292,7 +292,7 @@
   </si>
   <si>
     <t>地区生产总值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>常住总人口</t>
@@ -314,7 +314,61 @@
       </rPr>
       <t>需水量</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>需水量（前一年）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -324,7 +378,14 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,21 +506,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,37 +535,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,20 +845,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="31.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="13.125" style="1"/>
+    <col min="1" max="7" width="31.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -810,851 +874,1572 @@
       <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
+        <v>7588.24</v>
+      </c>
+      <c r="B2" s="15">
+        <v>18121.330000000002</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7641.2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>499.9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F2" s="7">
+        <f>F34</f>
+        <v>525.6</v>
+      </c>
+      <c r="G2" s="7">
+        <f>G34</f>
+        <v>26.699999999999932</v>
+      </c>
+      <c r="H2" s="13">
+        <v>519.70000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>7655.66</v>
+      </c>
+      <c r="B3" s="15">
+        <v>21240.79</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7385.16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>492.3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="F3" s="7">
+        <f>F35</f>
+        <v>519.70000000000005</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G35</f>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="H3" s="13">
+        <v>546.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>7723.13</v>
+      </c>
+      <c r="B4" s="15">
+        <v>25988.36</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7362.79</v>
+      </c>
+      <c r="D4" s="6">
+        <v>484.7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="F4" s="7">
+        <f>F36</f>
+        <v>546.4</v>
+      </c>
+      <c r="G4" s="7">
+        <f>G36</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>7762.48</v>
+      </c>
+      <c r="B5" s="15">
+        <v>30945.45</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7494.85</v>
+      </c>
+      <c r="D5" s="6">
+        <v>477.1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="F5" s="7">
+        <f>F37</f>
+        <v>558.29999999999995</v>
+      </c>
+      <c r="G5" s="7">
+        <f>G37</f>
+        <v>-9.0999999999999091</v>
+      </c>
+      <c r="H5" s="13">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>7810.27</v>
+      </c>
+      <c r="B6" s="15">
+        <v>34471.67</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7542.63</v>
+      </c>
+      <c r="D6" s="6">
+        <v>469.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="7">
+        <f>F38</f>
+        <v>558.29999999999995</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G38</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>549.20000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7869.34</v>
+      </c>
+      <c r="B7" s="15">
+        <v>41383.870000000003</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7616.96</v>
+      </c>
+      <c r="D7" s="8">
+        <v>463</v>
+      </c>
+      <c r="E7" s="9">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <f>F39</f>
+        <v>549.20000000000005</v>
+      </c>
+      <c r="G7" s="7">
+        <f>G39</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>552.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8022.99</v>
+      </c>
+      <c r="B8" s="15">
+        <v>48839.21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7646.43</v>
+      </c>
+      <c r="D8" s="8">
+        <v>461</v>
+      </c>
+      <c r="E8" s="9">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <f>F40</f>
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G8" s="7">
+        <f>G40</f>
+        <v>-4</v>
+      </c>
+      <c r="H8" s="14">
+        <v>556.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8119.81</v>
+      </c>
+      <c r="B9" s="15">
+        <v>53701.919999999998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7651.38</v>
+      </c>
+      <c r="D9" s="8">
+        <v>430</v>
+      </c>
+      <c r="E9" s="9">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7">
+        <f>F41</f>
+        <v>556.20000000000005</v>
+      </c>
+      <c r="G9" s="7">
+        <f>G41</f>
+        <v>-53.300000000000068</v>
+      </c>
+      <c r="H9" s="14">
+        <v>552.20000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8192.44</v>
+      </c>
+      <c r="B10" s="15">
+        <v>59349.41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7661</v>
+      </c>
+      <c r="D10" s="8">
+        <v>448</v>
+      </c>
+      <c r="E10" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="F10" s="7">
+        <f>F42</f>
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G10" s="7">
+        <f>G42</f>
+        <v>-18.199999999999989</v>
+      </c>
+      <c r="H10" s="14">
+        <v>498.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>8281.09</v>
+      </c>
+      <c r="B11" s="15">
+        <v>64830.51</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7672.27</v>
+      </c>
+      <c r="D11" s="8">
+        <v>433.3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <f>F43</f>
+        <v>498.9</v>
+      </c>
+      <c r="G11" s="7">
+        <f>G43</f>
+        <v>-20.099999999999966</v>
+      </c>
+      <c r="H11" s="14">
+        <v>480.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8315.11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>71255.929999999993</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7737.75</v>
+      </c>
+      <c r="D12" s="8">
+        <v>402</v>
+      </c>
+      <c r="E12" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="7">
+        <f>F44</f>
+        <v>480.7</v>
+      </c>
+      <c r="G12" s="7">
+        <f>G44</f>
+        <v>-7.4000000000000341</v>
+      </c>
+      <c r="H12" s="14">
+        <v>460.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8381.4699999999993</v>
+      </c>
+      <c r="B13" s="15">
+        <v>77350.850000000006</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7639.92</v>
+      </c>
+      <c r="D13" s="8">
+        <v>410</v>
+      </c>
+      <c r="E13" s="9">
+        <v>41.2</v>
+      </c>
+      <c r="F13" s="7">
+        <f>F45</f>
+        <v>460.6</v>
+      </c>
+      <c r="G13" s="7">
+        <f>G45</f>
+        <v>12.699999999999989</v>
+      </c>
+      <c r="H13" s="14">
+        <v>453.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>8423.5</v>
+      </c>
+      <c r="B14" s="15">
+        <v>85869.759999999995</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7556.4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>427</v>
+      </c>
+      <c r="E14" s="9">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F46</f>
+        <v>453.2</v>
+      </c>
+      <c r="G14" s="7">
+        <f>G46</f>
+        <v>-5.6999999999999886</v>
+      </c>
+      <c r="H14" s="14">
+        <v>465.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>8446.19</v>
+      </c>
+      <c r="B15" s="15">
+        <v>93207.55</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7520.23</v>
+      </c>
+      <c r="D15" s="8">
+        <v>429</v>
+      </c>
+      <c r="E15" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F47</f>
+        <v>465.9</v>
+      </c>
+      <c r="G15" s="7">
+        <f>G47</f>
+        <v>33.199999999999989</v>
+      </c>
+      <c r="H15" s="14">
+        <v>460.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>8469.09</v>
+      </c>
+      <c r="B16" s="15">
+        <v>98656.82</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7442.63</v>
+      </c>
+      <c r="D16" s="8">
+        <v>474.7</v>
+      </c>
+      <c r="E16" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="F16" s="7">
+        <f>F48</f>
+        <v>460.2</v>
+      </c>
+      <c r="G16" s="7">
+        <f>G48</f>
+        <v>-40.699999999999989</v>
+      </c>
+      <c r="H16" s="14">
+        <v>493.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>8477.26</v>
+      </c>
+      <c r="B17" s="15">
+        <v>102807.67999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7478.39</v>
+      </c>
+      <c r="D17" s="8">
+        <v>423.1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>31.1</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F49</f>
+        <v>493.4</v>
+      </c>
+      <c r="G17" s="7">
+        <f>G49</f>
+        <v>114.90000000000003</v>
+      </c>
+      <c r="H17" s="14">
+        <v>452.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>8505.4</v>
+      </c>
+      <c r="B18" s="15">
+        <v>117392.36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7514.45</v>
+      </c>
+      <c r="D18" s="8">
+        <v>395.1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <f>F50</f>
+        <v>452.7</v>
+      </c>
+      <c r="G18" s="7">
+        <f>G50</f>
+        <v>44.199999999999932</v>
+      </c>
+      <c r="H18" s="14">
+        <v>567.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>8515</v>
+      </c>
+      <c r="B19" s="16">
+        <v>122089.28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7534.24</v>
+      </c>
+      <c r="D19" s="8">
+        <v>476.1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>17.8</v>
+      </c>
+      <c r="F19" s="7">
+        <f>F51</f>
+        <v>567.6</v>
+      </c>
+      <c r="G19" s="7">
+        <f>G51</f>
+        <v>-40.399999999999977</v>
+      </c>
+      <c r="H19" s="14">
+        <v>611.79999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>7522.95</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B33" s="15">
         <v>14823.13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C33" s="5">
         <v>7668.98</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D33" s="6">
         <v>507.5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E33" s="7">
         <v>33.9</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <f>H34-H33</f>
+        <v>-5.8999999999999773</v>
+      </c>
+      <c r="H33" s="13">
         <v>525.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>7588.24</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B34" s="15">
         <v>18121.330000000002</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C34" s="5">
         <v>7641.2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D34" s="6">
         <v>499.9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E34" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F34" s="19">
+        <v>525.6</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" ref="G34:G51" si="0">H35-H34</f>
+        <v>26.699999999999932</v>
+      </c>
+      <c r="H34" s="13">
         <v>519.70000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>7655.66</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B35" s="15">
         <v>21240.79</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C35" s="5">
         <v>7385.16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D35" s="6">
         <v>492.3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E35" s="7">
         <v>30.5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F35" s="19">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="H35" s="13">
         <v>546.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>7723.13</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B36" s="15">
         <v>25988.36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C36" s="5">
         <v>7362.79</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D36" s="6">
         <v>484.7</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E36" s="7">
         <v>28.8</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F36" s="19">
+        <v>546.4</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
         <v>558.29999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>7762.48</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B37" s="15">
         <v>30945.45</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C37" s="5">
         <v>7494.85</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D37" s="6">
         <v>477.1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E37" s="7">
         <v>27.1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F37" s="19">
         <v>558.29999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>-9.0999999999999091</v>
+      </c>
+      <c r="H37" s="13">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>7810.27</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B38" s="15">
         <v>34471.67</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C38" s="5">
         <v>7542.63</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D38" s="6">
         <v>469.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E38" s="7">
         <v>25.4</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F38" s="19">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="13">
         <v>549.20000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>7869.34</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B39" s="15">
         <v>41383.870000000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C39" s="5">
         <v>7616.96</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D39" s="8">
         <v>463</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E39" s="9">
         <v>24</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F39" s="19">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H39" s="14">
         <v>552.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>8022.99</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B40" s="15">
         <v>48839.21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C40" s="5">
         <v>7646.43</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D40" s="8">
         <v>461</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E40" s="9">
         <v>22</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F40" s="19">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H40" s="14">
         <v>556.20000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>8119.81</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B41" s="15">
         <v>53701.919999999998</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C41" s="5">
         <v>7651.38</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D41" s="8">
         <v>430</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E41" s="9">
         <v>19</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F41" s="19">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>-53.300000000000068</v>
+      </c>
+      <c r="H41" s="14">
         <v>552.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>8192.44</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B42" s="15">
         <v>59349.41</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C42" s="5">
         <v>7661</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D42" s="8">
         <v>448</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E42" s="9">
         <v>19.3</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F42" s="19">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>-18.199999999999989</v>
+      </c>
+      <c r="H42" s="14">
         <v>498.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>8281.09</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B43" s="15">
         <v>64830.51</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C43" s="5">
         <v>7672.27</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D43" s="8">
         <v>433.3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E43" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F43" s="19">
+        <v>498.9</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>-20.099999999999966</v>
+      </c>
+      <c r="H43" s="14">
         <v>480.7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>8315.11</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B44" s="15">
         <v>71255.929999999993</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C44" s="5">
         <v>7737.75</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D44" s="8">
         <v>402</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E44" s="9">
         <v>16.5</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F44" s="19">
+        <v>480.7</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>-7.4000000000000341</v>
+      </c>
+      <c r="H44" s="14">
         <v>460.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>8381.4699999999993</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B45" s="15">
         <v>77350.850000000006</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C45" s="5">
         <v>7639.92</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D45" s="8">
         <v>410</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E45" s="9">
         <v>41.2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F45" s="19">
+        <v>460.6</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>12.699999999999989</v>
+      </c>
+      <c r="H45" s="14">
         <v>453.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>8423.5</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B46" s="15">
         <v>85869.759999999995</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C46" s="5">
         <v>7556.4</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D46" s="8">
         <v>427</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E46" s="9">
         <v>36.700000000000003</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F46" s="19">
+        <v>453.2</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>-5.6999999999999886</v>
+      </c>
+      <c r="H46" s="14">
         <v>465.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>8446.19</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B47" s="15">
         <v>93207.55</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C47" s="5">
         <v>7520.23</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D47" s="8">
         <v>429</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E47" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F47" s="19">
+        <v>465.9</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>33.199999999999989</v>
+      </c>
+      <c r="H47" s="14">
         <v>460.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>8469.09</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B48" s="15">
         <v>98656.82</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C48" s="5">
         <v>7442.63</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D48" s="8">
         <v>474.7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E48" s="9">
         <v>32.4</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F48" s="19">
+        <v>460.2</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>-40.699999999999989</v>
+      </c>
+      <c r="H48" s="14">
         <v>493.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
         <v>8477.26</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B49" s="15">
         <v>102807.67999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C49" s="5">
         <v>7478.39</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D49" s="8">
         <v>423.1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E49" s="9">
         <v>31.1</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F49" s="19">
+        <v>493.4</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>114.90000000000003</v>
+      </c>
+      <c r="H49" s="14">
         <v>452.7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
         <v>8505.4</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B50" s="15">
         <v>117392.36</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C50" s="5">
         <v>7514.45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D50" s="8">
         <v>395.1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E50" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F50" s="19">
+        <v>452.7</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="0"/>
+        <v>44.199999999999932</v>
+      </c>
+      <c r="H50" s="14">
         <v>567.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
         <v>8515</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B51" s="16">
         <v>122089.28</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C51" s="5">
         <v>7534.24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D51" s="8">
         <v>476.1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E51" s="9">
         <v>17.8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F51" s="19">
+        <v>567.6</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>-40.399999999999977</v>
+      </c>
+      <c r="H51" s="14">
         <v>611.79999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>8526</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B52" s="16">
         <v>128222.16</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C52" s="5">
         <v>7589.96</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D52" s="8">
         <v>400.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E52" s="9">
         <v>17.7</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F52" s="19">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="14">
         <v>571.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2">
+        <v>5</v>
+      </c>
+      <c r="I113" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="2">
+        <v>6</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="2">
-        <v>4</v>
-      </c>
-      <c r="F115" s="2">
-        <v>5</v>
-      </c>
-      <c r="G115" s="2">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="B118" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>1</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>6</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>7</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>4</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>5</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>6</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>7</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>8</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>9</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12B54A-95F3-4DDB-9B18-72B7CCC281EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B616B5-F43A-41FE-A3B9-F8C23E803444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="5175" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>常住人口</t>
   </si>
@@ -292,7 +292,7 @@
   </si>
   <si>
     <t>地区生产总值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常住总人口</t>
@@ -314,7 +314,7 @@
       </rPr>
       <t>需水量</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -368,7 +368,11 @@
   </si>
   <si>
     <t>需水量（前一年）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,13 +383,6 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +461,13 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -506,27 +510,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,35 +533,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,6 +890,9 @@
       <c r="H1" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="I1" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -902,15 +912,18 @@
         <v>32.200000000000003</v>
       </c>
       <c r="F2" s="7">
-        <f>F34</f>
+        <f>F35</f>
         <v>525.6</v>
       </c>
       <c r="G2" s="7">
-        <f>G34</f>
-        <v>26.699999999999932</v>
+        <f>G35</f>
+        <v>-5.8999999999999773</v>
       </c>
       <c r="H2" s="13">
         <v>519.70000000000005</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2005</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -930,15 +943,18 @@
         <v>30.5</v>
       </c>
       <c r="F3" s="7">
-        <f>F35</f>
+        <f>F36</f>
         <v>519.70000000000005</v>
       </c>
       <c r="G3" s="7">
-        <f>G35</f>
-        <v>11.899999999999977</v>
+        <f t="shared" ref="G3:G20" si="0">G36</f>
+        <v>26.699999999999932</v>
       </c>
       <c r="H3" s="13">
         <v>546.4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -958,15 +974,18 @@
         <v>28.8</v>
       </c>
       <c r="F4" s="7">
-        <f>F36</f>
+        <f>F37</f>
         <v>546.4</v>
       </c>
       <c r="G4" s="7">
-        <f>G36</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11.899999999999977</v>
       </c>
       <c r="H4" s="13">
         <v>558.29999999999995</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2007</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -986,15 +1005,18 @@
         <v>27.1</v>
       </c>
       <c r="F5" s="7">
-        <f>F37</f>
+        <f>F38</f>
         <v>558.29999999999995</v>
       </c>
       <c r="G5" s="7">
-        <f>G37</f>
-        <v>-9.0999999999999091</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H5" s="13">
         <v>558.29999999999995</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2008</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1014,15 +1036,18 @@
         <v>25.4</v>
       </c>
       <c r="F6" s="7">
-        <f>F38</f>
+        <f>F39</f>
         <v>558.29999999999995</v>
       </c>
       <c r="G6" s="7">
-        <f>G38</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>-9.0999999999999091</v>
       </c>
       <c r="H6" s="13">
         <v>549.20000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1042,15 +1067,18 @@
         <v>24</v>
       </c>
       <c r="F7" s="7">
-        <f>F39</f>
+        <f>F40</f>
         <v>549.20000000000005</v>
       </c>
       <c r="G7" s="7">
-        <f>G39</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H7" s="14">
         <v>552.20000000000005</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1070,15 +1098,18 @@
         <v>22</v>
       </c>
       <c r="F8" s="7">
-        <f>F40</f>
+        <f>F41</f>
         <v>552.20000000000005</v>
       </c>
       <c r="G8" s="7">
-        <f>G40</f>
-        <v>-4</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H8" s="14">
         <v>556.20000000000005</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1098,15 +1129,18 @@
         <v>19</v>
       </c>
       <c r="F9" s="7">
-        <f>F41</f>
+        <f>F42</f>
         <v>556.20000000000005</v>
       </c>
       <c r="G9" s="7">
-        <f>G41</f>
-        <v>-53.300000000000068</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="H9" s="14">
         <v>552.20000000000005</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1126,15 +1160,18 @@
         <v>19.3</v>
       </c>
       <c r="F10" s="7">
-        <f>F42</f>
+        <f>F43</f>
         <v>552.20000000000005</v>
       </c>
       <c r="G10" s="7">
-        <f>G42</f>
-        <v>-18.199999999999989</v>
+        <f t="shared" si="0"/>
+        <v>-53.300000000000068</v>
       </c>
       <c r="H10" s="14">
         <v>498.9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1154,15 +1191,18 @@
         <v>17.399999999999999</v>
       </c>
       <c r="F11" s="7">
-        <f>F43</f>
+        <f>F44</f>
         <v>498.9</v>
       </c>
       <c r="G11" s="7">
-        <f>G43</f>
-        <v>-20.099999999999966</v>
+        <f t="shared" si="0"/>
+        <v>-18.199999999999989</v>
       </c>
       <c r="H11" s="14">
         <v>480.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1182,15 +1222,18 @@
         <v>16.5</v>
       </c>
       <c r="F12" s="7">
-        <f>F44</f>
+        <f>F45</f>
         <v>480.7</v>
       </c>
       <c r="G12" s="7">
-        <f>G44</f>
-        <v>-7.4000000000000341</v>
+        <f t="shared" si="0"/>
+        <v>-20.099999999999966</v>
       </c>
       <c r="H12" s="14">
         <v>460.6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1210,15 +1253,18 @@
         <v>41.2</v>
       </c>
       <c r="F13" s="7">
-        <f>F45</f>
+        <f>F46</f>
         <v>460.6</v>
       </c>
       <c r="G13" s="7">
-        <f>G45</f>
-        <v>12.699999999999989</v>
+        <f t="shared" si="0"/>
+        <v>-7.4000000000000341</v>
       </c>
       <c r="H13" s="14">
         <v>453.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1238,15 +1284,18 @@
         <v>36.700000000000003</v>
       </c>
       <c r="F14" s="7">
-        <f>F46</f>
+        <f>F47</f>
         <v>453.2</v>
       </c>
       <c r="G14" s="7">
-        <f>G46</f>
-        <v>-5.6999999999999886</v>
+        <f t="shared" si="0"/>
+        <v>12.699999999999989</v>
       </c>
       <c r="H14" s="14">
         <v>465.9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1266,15 +1315,18 @@
         <v>34.200000000000003</v>
       </c>
       <c r="F15" s="7">
-        <f>F47</f>
+        <f>F48</f>
         <v>465.9</v>
       </c>
       <c r="G15" s="7">
-        <f>G47</f>
-        <v>33.199999999999989</v>
+        <f t="shared" si="0"/>
+        <v>-5.6999999999999886</v>
       </c>
       <c r="H15" s="14">
         <v>460.2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1294,18 +1346,21 @@
         <v>32.4</v>
       </c>
       <c r="F16" s="7">
-        <f>F48</f>
+        <f>F49</f>
         <v>460.2</v>
       </c>
       <c r="G16" s="7">
-        <f>G48</f>
-        <v>-40.699999999999989</v>
+        <f t="shared" si="0"/>
+        <v>33.199999999999989</v>
       </c>
       <c r="H16" s="14">
         <v>493.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>8477.26</v>
       </c>
@@ -1322,18 +1377,21 @@
         <v>31.1</v>
       </c>
       <c r="F17" s="7">
-        <f>F49</f>
+        <f>F50</f>
         <v>493.4</v>
       </c>
       <c r="G17" s="7">
-        <f>G49</f>
-        <v>114.90000000000003</v>
+        <f t="shared" si="0"/>
+        <v>-40.699999999999989</v>
       </c>
       <c r="H17" s="14">
         <v>452.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>8505.4</v>
       </c>
@@ -1350,18 +1408,21 @@
         <v>19.399999999999999</v>
       </c>
       <c r="F18" s="7">
-        <f>F50</f>
+        <f>F51</f>
         <v>452.7</v>
       </c>
       <c r="G18" s="7">
-        <f>G50</f>
-        <v>44.199999999999932</v>
+        <f t="shared" si="0"/>
+        <v>114.90000000000003</v>
       </c>
       <c r="H18" s="14">
         <v>567.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>8515</v>
       </c>
@@ -1378,816 +1439,899 @@
         <v>17.8</v>
       </c>
       <c r="F19" s="7">
-        <f>F51</f>
+        <f t="shared" ref="F19" si="1">F52</f>
         <v>567.6</v>
       </c>
       <c r="G19" s="7">
-        <f>G51</f>
-        <v>-40.399999999999977</v>
+        <f t="shared" si="0"/>
+        <v>44.199999999999932</v>
       </c>
       <c r="H19" s="14">
         <v>611.79999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="I19" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>8526</v>
+      </c>
+      <c r="B20" s="16">
+        <v>128222.16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7589.96</v>
+      </c>
+      <c r="D20" s="8">
+        <v>400.2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="F20" s="19">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>-40.399999999999977</v>
+      </c>
+      <c r="H20" s="14">
+        <v>571.4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>7522.95</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B34" s="15">
         <v>14823.13</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>7668.98</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>507.5</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>33.9</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <f>H34-H33</f>
+      <c r="F34" s="7"/>
+      <c r="H34" s="13">
+        <v>525.6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>7588.24</v>
+      </c>
+      <c r="B35" s="15">
+        <v>18121.330000000002</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7641.2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>499.9</v>
+      </c>
+      <c r="E35" s="7">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F35" s="19">
+        <v>525.6</v>
+      </c>
+      <c r="G35" s="7">
+        <f>H35-H34</f>
         <v>-5.8999999999999773</v>
       </c>
-      <c r="H33" s="13">
-        <v>525.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>7588.24</v>
-      </c>
-      <c r="B34" s="15">
-        <v>18121.330000000002</v>
-      </c>
-      <c r="C34" s="5">
-        <v>7641.2</v>
-      </c>
-      <c r="D34" s="6">
-        <v>499.9</v>
-      </c>
-      <c r="E34" s="7">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="F34" s="19">
-        <v>525.6</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" ref="G34:G51" si="0">H35-H34</f>
+      <c r="H35" s="13">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>7655.66</v>
+      </c>
+      <c r="B36" s="15">
+        <v>21240.79</v>
+      </c>
+      <c r="C36" s="5">
+        <v>7385.16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>492.3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="F36" s="19">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="G36" s="7">
+        <f>H36-H35</f>
         <v>26.699999999999932</v>
       </c>
-      <c r="H34" s="13">
-        <v>519.70000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>7655.66</v>
-      </c>
-      <c r="B35" s="15">
-        <v>21240.79</v>
-      </c>
-      <c r="C35" s="5">
-        <v>7385.16</v>
-      </c>
-      <c r="D35" s="6">
-        <v>492.3</v>
-      </c>
-      <c r="E35" s="7">
-        <v>30.5</v>
-      </c>
-      <c r="F35" s="19">
-        <v>519.70000000000005</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="0"/>
+      <c r="H36" s="13">
+        <v>546.4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>7723.13</v>
+      </c>
+      <c r="B37" s="15">
+        <v>25988.36</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7362.79</v>
+      </c>
+      <c r="D37" s="6">
+        <v>484.7</v>
+      </c>
+      <c r="E37" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="F37" s="19">
+        <v>546.4</v>
+      </c>
+      <c r="G37" s="7">
+        <f>H37-H36</f>
         <v>11.899999999999977</v>
-      </c>
-      <c r="H35" s="13">
-        <v>546.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>7723.13</v>
-      </c>
-      <c r="B36" s="15">
-        <v>25988.36</v>
-      </c>
-      <c r="C36" s="5">
-        <v>7362.79</v>
-      </c>
-      <c r="D36" s="6">
-        <v>484.7</v>
-      </c>
-      <c r="E36" s="7">
-        <v>28.8</v>
-      </c>
-      <c r="F36" s="19">
-        <v>546.4</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
-        <v>558.29999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>7762.48</v>
-      </c>
-      <c r="B37" s="15">
-        <v>30945.45</v>
-      </c>
-      <c r="C37" s="5">
-        <v>7494.85</v>
-      </c>
-      <c r="D37" s="6">
-        <v>477.1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>27.1</v>
-      </c>
-      <c r="F37" s="19">
-        <v>558.29999999999995</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="0"/>
-        <v>-9.0999999999999091</v>
       </c>
       <c r="H37" s="13">
         <v>558.29999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I37" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>7810.27</v>
+        <v>7762.48</v>
       </c>
       <c r="B38" s="15">
-        <v>34471.67</v>
+        <v>30945.45</v>
       </c>
       <c r="C38" s="5">
-        <v>7542.63</v>
+        <v>7494.85</v>
       </c>
       <c r="D38" s="6">
-        <v>469.5</v>
+        <v>477.1</v>
       </c>
       <c r="E38" s="7">
-        <v>25.4</v>
+        <v>27.1</v>
       </c>
       <c r="F38" s="19">
         <v>558.29999999999995</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
+        <f>H38-H37</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>7810.27</v>
+      </c>
+      <c r="B39" s="15">
+        <v>34471.67</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7542.63</v>
+      </c>
+      <c r="D39" s="6">
+        <v>469.5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="F39" s="19">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="G39" s="7">
+        <f>H39-H38</f>
+        <v>-9.0999999999999091</v>
+      </c>
+      <c r="H39" s="13">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>7869.34</v>
+      </c>
+      <c r="B40" s="15">
+        <v>41383.870000000003</v>
+      </c>
+      <c r="C40" s="5">
+        <v>7616.96</v>
+      </c>
+      <c r="D40" s="8">
+        <v>463</v>
+      </c>
+      <c r="E40" s="9">
+        <v>24</v>
+      </c>
+      <c r="F40" s="19">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="G40" s="7">
+        <f>H40-H39</f>
         <v>3</v>
       </c>
-      <c r="H38" s="13">
-        <v>549.20000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>7869.34</v>
-      </c>
-      <c r="B39" s="15">
-        <v>41383.870000000003</v>
-      </c>
-      <c r="C39" s="5">
-        <v>7616.96</v>
-      </c>
-      <c r="D39" s="8">
-        <v>463</v>
-      </c>
-      <c r="E39" s="9">
-        <v>24</v>
-      </c>
-      <c r="F39" s="19">
-        <v>549.20000000000005</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="0"/>
+      <c r="H40" s="14">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>8022.99</v>
+      </c>
+      <c r="B41" s="15">
+        <v>48839.21</v>
+      </c>
+      <c r="C41" s="5">
+        <v>7646.43</v>
+      </c>
+      <c r="D41" s="8">
+        <v>461</v>
+      </c>
+      <c r="E41" s="9">
+        <v>22</v>
+      </c>
+      <c r="F41" s="19">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G41" s="7">
+        <f>H41-H40</f>
         <v>4</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H41" s="14">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>8119.81</v>
+      </c>
+      <c r="B42" s="15">
+        <v>53701.919999999998</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7651.38</v>
+      </c>
+      <c r="D42" s="8">
+        <v>430</v>
+      </c>
+      <c r="E42" s="9">
+        <v>19</v>
+      </c>
+      <c r="F42" s="19">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="G42" s="7">
+        <f>H42-H41</f>
+        <v>-4</v>
+      </c>
+      <c r="H42" s="14">
         <v>552.20000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>8022.99</v>
-      </c>
-      <c r="B40" s="15">
-        <v>48839.21</v>
-      </c>
-      <c r="C40" s="5">
-        <v>7646.43</v>
-      </c>
-      <c r="D40" s="8">
-        <v>461</v>
-      </c>
-      <c r="E40" s="9">
-        <v>22</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="I42" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>8192.44</v>
+      </c>
+      <c r="B43" s="15">
+        <v>59349.41</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7661</v>
+      </c>
+      <c r="D43" s="8">
+        <v>448</v>
+      </c>
+      <c r="E43" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="F43" s="19">
         <v>552.20000000000005</v>
       </c>
-      <c r="G40" s="7">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="H40" s="14">
-        <v>556.20000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>8119.81</v>
-      </c>
-      <c r="B41" s="15">
-        <v>53701.919999999998</v>
-      </c>
-      <c r="C41" s="5">
-        <v>7651.38</v>
-      </c>
-      <c r="D41" s="8">
-        <v>430</v>
-      </c>
-      <c r="E41" s="9">
-        <v>19</v>
-      </c>
-      <c r="F41" s="19">
-        <v>556.20000000000005</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="0"/>
+      <c r="G43" s="7">
+        <f>H43-H42</f>
         <v>-53.300000000000068</v>
       </c>
-      <c r="H41" s="14">
-        <v>552.20000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>8192.44</v>
-      </c>
-      <c r="B42" s="15">
-        <v>59349.41</v>
-      </c>
-      <c r="C42" s="5">
-        <v>7661</v>
-      </c>
-      <c r="D42" s="8">
-        <v>448</v>
-      </c>
-      <c r="E42" s="9">
-        <v>19.3</v>
-      </c>
-      <c r="F42" s="19">
-        <v>552.20000000000005</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="0"/>
+      <c r="H43" s="14">
+        <v>498.9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>8281.09</v>
+      </c>
+      <c r="B44" s="15">
+        <v>64830.51</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7672.27</v>
+      </c>
+      <c r="D44" s="8">
+        <v>433.3</v>
+      </c>
+      <c r="E44" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F44" s="19">
+        <v>498.9</v>
+      </c>
+      <c r="G44" s="7">
+        <f>H44-H43</f>
         <v>-18.199999999999989</v>
       </c>
-      <c r="H42" s="14">
-        <v>498.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>8281.09</v>
-      </c>
-      <c r="B43" s="15">
-        <v>64830.51</v>
-      </c>
-      <c r="C43" s="5">
-        <v>7672.27</v>
-      </c>
-      <c r="D43" s="8">
-        <v>433.3</v>
-      </c>
-      <c r="E43" s="9">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F43" s="19">
-        <v>498.9</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="0"/>
+      <c r="H44" s="14">
+        <v>480.7</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>8315.11</v>
+      </c>
+      <c r="B45" s="15">
+        <v>71255.929999999993</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7737.75</v>
+      </c>
+      <c r="D45" s="8">
+        <v>402</v>
+      </c>
+      <c r="E45" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="F45" s="19">
+        <v>480.7</v>
+      </c>
+      <c r="G45" s="7">
+        <f>H45-H44</f>
         <v>-20.099999999999966</v>
       </c>
-      <c r="H43" s="14">
-        <v>480.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>8315.11</v>
-      </c>
-      <c r="B44" s="15">
-        <v>71255.929999999993</v>
-      </c>
-      <c r="C44" s="5">
-        <v>7737.75</v>
-      </c>
-      <c r="D44" s="8">
-        <v>402</v>
-      </c>
-      <c r="E44" s="9">
-        <v>16.5</v>
-      </c>
-      <c r="F44" s="19">
-        <v>480.7</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="0"/>
+      <c r="H45" s="14">
+        <v>460.6</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>8381.4699999999993</v>
+      </c>
+      <c r="B46" s="15">
+        <v>77350.850000000006</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7639.92</v>
+      </c>
+      <c r="D46" s="8">
+        <v>410</v>
+      </c>
+      <c r="E46" s="9">
+        <v>41.2</v>
+      </c>
+      <c r="F46" s="19">
+        <v>460.6</v>
+      </c>
+      <c r="G46" s="7">
+        <f>H46-H45</f>
         <v>-7.4000000000000341</v>
       </c>
-      <c r="H44" s="14">
-        <v>460.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>8381.4699999999993</v>
-      </c>
-      <c r="B45" s="15">
-        <v>77350.850000000006</v>
-      </c>
-      <c r="C45" s="5">
-        <v>7639.92</v>
-      </c>
-      <c r="D45" s="8">
-        <v>410</v>
-      </c>
-      <c r="E45" s="9">
-        <v>41.2</v>
-      </c>
-      <c r="F45" s="19">
-        <v>460.6</v>
-      </c>
-      <c r="G45" s="7">
-        <f t="shared" si="0"/>
+      <c r="H46" s="14">
+        <v>453.2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>8423.5</v>
+      </c>
+      <c r="B47" s="15">
+        <v>85869.759999999995</v>
+      </c>
+      <c r="C47" s="5">
+        <v>7556.4</v>
+      </c>
+      <c r="D47" s="8">
+        <v>427</v>
+      </c>
+      <c r="E47" s="9">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F47" s="19">
+        <v>453.2</v>
+      </c>
+      <c r="G47" s="7">
+        <f>H47-H46</f>
         <v>12.699999999999989</v>
       </c>
-      <c r="H45" s="14">
-        <v>453.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>8423.5</v>
-      </c>
-      <c r="B46" s="15">
-        <v>85869.759999999995</v>
-      </c>
-      <c r="C46" s="5">
-        <v>7556.4</v>
-      </c>
-      <c r="D46" s="8">
-        <v>427</v>
-      </c>
-      <c r="E46" s="9">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F46" s="19">
-        <v>453.2</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" si="0"/>
+      <c r="H47" s="14">
+        <v>465.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>8446.19</v>
+      </c>
+      <c r="B48" s="15">
+        <v>93207.55</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7520.23</v>
+      </c>
+      <c r="D48" s="8">
+        <v>429</v>
+      </c>
+      <c r="E48" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F48" s="19">
+        <v>465.9</v>
+      </c>
+      <c r="G48" s="7">
+        <f>H48-H47</f>
         <v>-5.6999999999999886</v>
       </c>
-      <c r="H46" s="14">
-        <v>465.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>8446.19</v>
-      </c>
-      <c r="B47" s="15">
-        <v>93207.55</v>
-      </c>
-      <c r="C47" s="5">
-        <v>7520.23</v>
-      </c>
-      <c r="D47" s="8">
-        <v>429</v>
-      </c>
-      <c r="E47" s="9">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="F47" s="19">
-        <v>465.9</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="0"/>
+      <c r="H48" s="14">
+        <v>460.2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>8469.09</v>
+      </c>
+      <c r="B49" s="15">
+        <v>98656.82</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7442.63</v>
+      </c>
+      <c r="D49" s="8">
+        <v>474.7</v>
+      </c>
+      <c r="E49" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="F49" s="19">
+        <v>460.2</v>
+      </c>
+      <c r="G49" s="7">
+        <f>H49-H48</f>
         <v>33.199999999999989</v>
       </c>
-      <c r="H47" s="14">
-        <v>460.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>8469.09</v>
-      </c>
-      <c r="B48" s="15">
-        <v>98656.82</v>
-      </c>
-      <c r="C48" s="5">
-        <v>7442.63</v>
-      </c>
-      <c r="D48" s="8">
-        <v>474.7</v>
-      </c>
-      <c r="E48" s="9">
-        <v>32.4</v>
-      </c>
-      <c r="F48" s="19">
-        <v>460.2</v>
-      </c>
-      <c r="G48" s="7">
-        <f t="shared" si="0"/>
+      <c r="H49" s="14">
+        <v>493.4</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>8477.26</v>
+      </c>
+      <c r="B50" s="15">
+        <v>102807.67999999999</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7478.39</v>
+      </c>
+      <c r="D50" s="8">
+        <v>423.1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>31.1</v>
+      </c>
+      <c r="F50" s="19">
+        <v>493.4</v>
+      </c>
+      <c r="G50" s="7">
+        <f>H50-H49</f>
         <v>-40.699999999999989</v>
       </c>
-      <c r="H48" s="14">
-        <v>493.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>8477.26</v>
-      </c>
-      <c r="B49" s="15">
-        <v>102807.67999999999</v>
-      </c>
-      <c r="C49" s="5">
-        <v>7478.39</v>
-      </c>
-      <c r="D49" s="8">
-        <v>423.1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>31.1</v>
-      </c>
-      <c r="F49" s="19">
-        <v>493.4</v>
-      </c>
-      <c r="G49" s="7">
-        <f t="shared" si="0"/>
+      <c r="H50" s="14">
+        <v>452.7</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>8505.4</v>
+      </c>
+      <c r="B51" s="15">
+        <v>117392.36</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7514.45</v>
+      </c>
+      <c r="D51" s="8">
+        <v>395.1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F51" s="19">
+        <v>452.7</v>
+      </c>
+      <c r="G51" s="7">
+        <f>H51-H50</f>
         <v>114.90000000000003</v>
       </c>
-      <c r="H49" s="14">
-        <v>452.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
-        <v>8505.4</v>
-      </c>
-      <c r="B50" s="15">
-        <v>117392.36</v>
-      </c>
-      <c r="C50" s="5">
-        <v>7514.45</v>
-      </c>
-      <c r="D50" s="8">
-        <v>395.1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F50" s="19">
-        <v>452.7</v>
-      </c>
-      <c r="G50" s="7">
-        <f t="shared" si="0"/>
+      <c r="H51" s="14">
+        <v>567.6</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>8515</v>
+      </c>
+      <c r="B52" s="16">
+        <v>122089.28</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7534.24</v>
+      </c>
+      <c r="D52" s="8">
+        <v>476.1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>17.8</v>
+      </c>
+      <c r="F52" s="19">
+        <v>567.6</v>
+      </c>
+      <c r="G52" s="7">
+        <f>H52-H51</f>
         <v>44.199999999999932</v>
       </c>
-      <c r="H50" s="14">
-        <v>567.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>8515</v>
-      </c>
-      <c r="B51" s="16">
-        <v>122089.28</v>
-      </c>
-      <c r="C51" s="5">
-        <v>7534.24</v>
-      </c>
-      <c r="D51" s="8">
-        <v>476.1</v>
-      </c>
-      <c r="E51" s="9">
-        <v>17.8</v>
-      </c>
-      <c r="F51" s="19">
-        <v>567.6</v>
-      </c>
-      <c r="G51" s="7">
-        <f t="shared" si="0"/>
+      <c r="H52" s="14">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>8526</v>
+      </c>
+      <c r="B53" s="16">
+        <v>128222.16</v>
+      </c>
+      <c r="C53" s="5">
+        <v>7589.96</v>
+      </c>
+      <c r="D53" s="8">
+        <v>400.2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="F53" s="19">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="G53" s="7">
+        <f>H53-H52</f>
         <v>-40.399999999999977</v>
       </c>
-      <c r="H51" s="14">
-        <v>611.79999999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <v>8526</v>
-      </c>
-      <c r="B52" s="16">
-        <v>128222.16</v>
-      </c>
-      <c r="C52" s="5">
-        <v>7589.96</v>
-      </c>
-      <c r="D52" s="8">
-        <v>400.2</v>
-      </c>
-      <c r="E52" s="9">
-        <v>17.7</v>
-      </c>
-      <c r="F52" s="19">
-        <v>611.79999999999995</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>571.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="I53" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B114" s="2">
         <v>1</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C114" s="2">
         <v>2</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D114" s="2">
         <v>3</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E114" s="2">
         <v>4</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2">
-        <v>5</v>
-      </c>
-      <c r="I113" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H114" s="2">
+        <v>5</v>
+      </c>
+      <c r="I114" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
@@ -2199,122 +2343,109 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3" t="s">
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>1</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>2</v>
@@ -2325,40 +2456,40 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -2369,65 +2500,65 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>44</v>
@@ -2435,11 +2566,33 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/程序/数据集.xlsx
+++ b/程序/数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61366DD4-1E54-4353-B458-66F2C7A32772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8216D0-428C-463A-A0C9-A215FCFE3E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>常住人口</t>
   </si>
@@ -352,16 +352,96 @@
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>常住总人口</t>
+  </si>
+  <si>
+    <t>地区生产总值</t>
+  </si>
+  <si>
+    <t>需水量（前一年）</t>
+  </si>
+  <si>
+    <t>需水量差分</t>
+  </si>
+  <si>
+    <r>
+      <t>亩均灌溉用水量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m³/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>万元工业增加值用水量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m³/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万元）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,14 +461,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -428,24 +500,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -489,27 +564,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,53 +581,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,722 +906,980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="13.125" style="1"/>
+    <col min="1" max="3" width="31.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="13.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="I1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>-2.5687298511578698</v>
-      </c>
-      <c r="B2" s="22">
-        <v>-3.59263124173985E-2</v>
-      </c>
-      <c r="C2" s="23">
-        <v>-0.98523420765546199</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>7588</v>
+      </c>
+      <c r="B2" s="16">
+        <v>18121.330000000002</v>
+      </c>
+      <c r="C2" s="16">
+        <v>7641</v>
+      </c>
+      <c r="D2" s="16">
+        <v>499.9</v>
+      </c>
+      <c r="E2" s="16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F2" s="16">
+        <v>525.6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>-5.9</v>
+      </c>
+      <c r="H2" s="11">
         <v>519.70000000000005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="16">
         <v>2005</v>
       </c>
-      <c r="F2" s="1">
+      <c r="J2" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>-2.6030875870466601</v>
-      </c>
-      <c r="B3" s="22">
-        <v>1.59126752507623</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.478753095339849</v>
-      </c>
-      <c r="D3" s="13">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>7656</v>
+      </c>
+      <c r="B3" s="16">
+        <v>21240.79</v>
+      </c>
+      <c r="C3" s="16">
+        <v>7385</v>
+      </c>
+      <c r="D3" s="16">
+        <v>492.3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>30.5</v>
+      </c>
+      <c r="F3" s="16">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="G3" s="16">
+        <v>26.7</v>
+      </c>
+      <c r="H3" s="11">
         <v>546.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="16">
         <v>2006</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>-2.49806161835527</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1.1161534174496099</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.67360287492010795</v>
-      </c>
-      <c r="D4" s="13">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>7723</v>
+      </c>
+      <c r="B4" s="16">
+        <v>25988.36</v>
+      </c>
+      <c r="C4" s="16">
+        <v>7363</v>
+      </c>
+      <c r="D4" s="16">
+        <v>484.7</v>
+      </c>
+      <c r="E4" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="F4" s="16">
+        <v>546.4</v>
+      </c>
+      <c r="G4" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="H4" s="11">
         <v>558.29999999999995</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="16">
         <v>2007</v>
       </c>
-      <c r="F4" s="1">
+      <c r="J4" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>-2.0832381594543898</v>
-      </c>
-      <c r="B5" s="22">
-        <v>3.4035093372375397E-2</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.25810640973995003</v>
-      </c>
-      <c r="D5" s="13">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>7762</v>
+      </c>
+      <c r="B5" s="16">
+        <v>30945.45</v>
+      </c>
+      <c r="C5" s="16">
+        <v>7495</v>
+      </c>
+      <c r="D5" s="16">
+        <v>477.1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>27.1</v>
+      </c>
+      <c r="F5" s="16">
         <v>558.29999999999995</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="I5" s="16">
         <v>2008</v>
       </c>
-      <c r="F5" s="1">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>-1.7445417402674199</v>
-      </c>
-      <c r="B6" s="22">
-        <v>-0.46300725949202198</v>
-      </c>
-      <c r="C6" s="23">
-        <v>7.2081963902902793E-2</v>
-      </c>
-      <c r="D6" s="13">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>7810</v>
+      </c>
+      <c r="B6" s="16">
+        <v>34471.67</v>
+      </c>
+      <c r="C6" s="16">
+        <v>7543</v>
+      </c>
+      <c r="D6" s="16">
+        <v>469.5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="16">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="G6" s="16">
+        <v>-9.1</v>
+      </c>
+      <c r="H6" s="11">
         <v>549.20000000000005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="16">
         <v>2009</v>
       </c>
-      <c r="F6" s="1">
+      <c r="J6" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>-1.2156460961290301</v>
-      </c>
-      <c r="B7" s="22">
-        <v>-0.71323497254038104</v>
-      </c>
-      <c r="C7" s="23">
-        <v>5.9093816278173297E-2</v>
-      </c>
-      <c r="D7" s="14">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>7869</v>
+      </c>
+      <c r="B7" s="16">
+        <v>41383.870000000003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>7617</v>
+      </c>
+      <c r="D7" s="16">
+        <v>463</v>
+      </c>
+      <c r="E7" s="16">
+        <v>24</v>
+      </c>
+      <c r="F7" s="16">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
         <v>552.20000000000005</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="16">
         <v>2010</v>
       </c>
-      <c r="F7" s="1">
+      <c r="J7" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>-0.74741310082107804</v>
-      </c>
-      <c r="B8" s="22">
-        <v>-1.0048574781741899</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.211407602595858</v>
-      </c>
-      <c r="D8" s="14">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>8023</v>
+      </c>
+      <c r="B8" s="16">
+        <v>48839.21</v>
+      </c>
+      <c r="C8" s="16">
+        <v>7646</v>
+      </c>
+      <c r="D8" s="16">
+        <v>461</v>
+      </c>
+      <c r="E8" s="16">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12">
         <v>556.20000000000005</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="16">
         <v>2011</v>
       </c>
-      <c r="F8" s="1">
+      <c r="J8" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>-1.6349503919294298E-2</v>
-      </c>
-      <c r="B9" s="22">
-        <v>-1.4944974304907199</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.21862915054374399</v>
-      </c>
-      <c r="D9" s="14">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>8120</v>
+      </c>
+      <c r="B9" s="16">
+        <v>53701.919999999998</v>
+      </c>
+      <c r="C9" s="16">
+        <v>7651</v>
+      </c>
+      <c r="D9" s="16">
+        <v>430</v>
+      </c>
+      <c r="E9" s="16">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="G9" s="16">
+        <v>-4</v>
+      </c>
+      <c r="H9" s="12">
         <v>552.20000000000005</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="16">
         <v>2012</v>
       </c>
-      <c r="F9" s="1">
+      <c r="J9" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>-0.14935422229704601</v>
-      </c>
-      <c r="B10" s="22">
-        <v>-1.9899867181462401</v>
-      </c>
-      <c r="C10" s="23">
-        <v>-0.495921366607116</v>
-      </c>
-      <c r="D10" s="14">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>8192</v>
+      </c>
+      <c r="B10" s="16">
+        <v>59349.41</v>
+      </c>
+      <c r="C10" s="16">
+        <v>7661</v>
+      </c>
+      <c r="D10" s="16">
+        <v>448</v>
+      </c>
+      <c r="E10" s="16">
+        <v>19.3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="G10" s="16">
+        <v>-53.3</v>
+      </c>
+      <c r="H10" s="12">
         <v>498.9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="16">
         <v>2013</v>
       </c>
-      <c r="F10" s="1">
+      <c r="J10" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>0.73821400303726803</v>
-      </c>
-      <c r="B11" s="22">
-        <v>-1.257427964416</v>
-      </c>
-      <c r="C11" s="23">
-        <v>-0.30042508961454201</v>
-      </c>
-      <c r="D11" s="14">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8281</v>
+      </c>
+      <c r="B11" s="16">
+        <v>64830.51</v>
+      </c>
+      <c r="C11" s="16">
+        <v>7672</v>
+      </c>
+      <c r="D11" s="16">
+        <v>433.3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>498.9</v>
+      </c>
+      <c r="G11" s="16">
+        <v>-18.2</v>
+      </c>
+      <c r="H11" s="12">
         <v>480.7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="16">
         <v>2014</v>
       </c>
-      <c r="F11" s="1">
+      <c r="J11" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>1.6079976136942999</v>
-      </c>
-      <c r="B12" s="22">
-        <v>-1.6148590511890699</v>
-      </c>
-      <c r="C12" s="23">
-        <v>-0.74382954053055805</v>
-      </c>
-      <c r="D12" s="14">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>8315</v>
+      </c>
+      <c r="B12" s="16">
+        <v>71255.929999999993</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7738</v>
+      </c>
+      <c r="D12" s="16">
+        <v>402</v>
+      </c>
+      <c r="E12" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>480.7</v>
+      </c>
+      <c r="G12" s="16">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="H12" s="12">
         <v>460.6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="I12" s="16">
         <v>2015</v>
       </c>
-      <c r="F12" s="1">
+      <c r="J12" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>1.3624858481822499</v>
-      </c>
-      <c r="B13" s="22">
-        <v>1.0239292062708401</v>
-      </c>
-      <c r="C13" s="23">
-        <v>-2.1264740473667398</v>
-      </c>
-      <c r="D13" s="14">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>8381</v>
+      </c>
+      <c r="B13" s="16">
+        <v>77350.850000000006</v>
+      </c>
+      <c r="C13" s="16">
+        <v>7640</v>
+      </c>
+      <c r="D13" s="16">
+        <v>410</v>
+      </c>
+      <c r="E13" s="16">
+        <v>41.2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>460.6</v>
+      </c>
+      <c r="G13" s="16">
+        <v>-7.4</v>
+      </c>
+      <c r="H13" s="12">
         <v>453.2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="I13" s="16">
         <v>2016</v>
       </c>
-      <c r="F13" s="1">
+      <c r="J13" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>1.29378996001913</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1.54624781779957</v>
-      </c>
-      <c r="C14" s="23">
-        <v>-1.0973644378848499</v>
-      </c>
-      <c r="D14" s="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>8424</v>
+      </c>
+      <c r="B14" s="16">
+        <v>85869.759999999995</v>
+      </c>
+      <c r="C14" s="16">
+        <v>7556</v>
+      </c>
+      <c r="D14" s="16">
+        <v>427</v>
+      </c>
+      <c r="E14" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F14" s="16">
+        <v>453.2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="H14" s="12">
         <v>465.9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="I14" s="16">
         <v>2017</v>
       </c>
-      <c r="F14" s="1">
+      <c r="J14" s="16">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>1.27116254014445</v>
-      </c>
-      <c r="B15" s="22">
-        <v>1.2249460572587401</v>
-      </c>
-      <c r="C15" s="23">
-        <v>-0.90454320843074598</v>
-      </c>
-      <c r="D15" s="14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>8446</v>
+      </c>
+      <c r="B15" s="16">
+        <v>93207.55</v>
+      </c>
+      <c r="C15" s="16">
+        <v>7520</v>
+      </c>
+      <c r="D15" s="16">
+        <v>429</v>
+      </c>
+      <c r="E15" s="16">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F15" s="16">
+        <v>465.9</v>
+      </c>
+      <c r="G15" s="16">
+        <v>-5.7</v>
+      </c>
+      <c r="H15" s="12">
         <v>460.2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="I15" s="16">
         <v>2018</v>
       </c>
-      <c r="F15" s="1">
+      <c r="J15" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>0.67902655893798802</v>
-      </c>
-      <c r="B16" s="22">
-        <v>2.2342559653271699</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0.32886234614197801</v>
-      </c>
-      <c r="D16" s="14">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>8469</v>
+      </c>
+      <c r="B16" s="16">
+        <v>98656.82</v>
+      </c>
+      <c r="C16" s="16">
+        <v>7443</v>
+      </c>
+      <c r="D16" s="16">
+        <v>474.7</v>
+      </c>
+      <c r="E16" s="16">
+        <v>32.4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>460.2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H16" s="12">
         <v>493.4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="I16" s="16">
         <v>2019</v>
       </c>
-      <c r="F16" s="1">
+      <c r="J16" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>1.29933975499483</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.508353660582467</v>
-      </c>
-      <c r="C17" s="23">
-        <v>-0.80866823513670205</v>
-      </c>
-      <c r="D17" s="14">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>8477</v>
+      </c>
+      <c r="B17" s="16">
+        <v>102807.67999999999</v>
+      </c>
+      <c r="C17" s="16">
+        <v>7478</v>
+      </c>
+      <c r="D17" s="16">
+        <v>423.1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>31.1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>493.4</v>
+      </c>
+      <c r="G17" s="16">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="H17" s="12">
         <v>452.7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="I17" s="16">
         <v>2020</v>
       </c>
-      <c r="F17" s="1">
+      <c r="J17" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>2.7574524253755301</v>
-      </c>
-      <c r="B18" s="22">
-        <v>1.71883260583012</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1.9993202069439899</v>
-      </c>
-      <c r="D18" s="14">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>8505</v>
+      </c>
+      <c r="B18" s="16">
+        <v>117392.36</v>
+      </c>
+      <c r="C18" s="16">
+        <v>7514</v>
+      </c>
+      <c r="D18" s="16">
+        <v>395.1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F18" s="16">
+        <v>452.7</v>
+      </c>
+      <c r="G18" s="16">
+        <v>114.9</v>
+      </c>
+      <c r="H18" s="12">
         <v>567.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="I18" s="16">
         <v>2021</v>
       </c>
-      <c r="F18" s="1">
+      <c r="J18" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>0.82388243696349805</v>
-      </c>
-      <c r="B19" s="25">
-        <v>-0.168561938139346</v>
-      </c>
-      <c r="C19" s="23">
-        <v>2.3222626947639302</v>
-      </c>
-      <c r="D19" s="14">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>8515</v>
+      </c>
+      <c r="B19" s="16">
+        <v>122089.28</v>
+      </c>
+      <c r="C19" s="16">
+        <v>7534</v>
+      </c>
+      <c r="D19" s="16">
+        <v>476.1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="F19" s="16">
+        <v>567.6</v>
+      </c>
+      <c r="G19" s="16">
+        <v>44.2</v>
+      </c>
+      <c r="H19" s="12">
         <v>611.79999999999995</v>
       </c>
-      <c r="E19" s="1">
+      <c r="I19" s="16">
         <v>2022</v>
       </c>
-      <c r="F19" s="1">
+      <c r="J19" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>1.7930707380988899</v>
-      </c>
-      <c r="B20" s="25">
-        <v>-2.25566222396183</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0.84033997205622502</v>
-      </c>
-      <c r="D20" s="14">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>8526</v>
+      </c>
+      <c r="B20" s="16">
+        <v>128222.16</v>
+      </c>
+      <c r="C20" s="16">
+        <v>7590</v>
+      </c>
+      <c r="D20" s="16">
+        <v>400.2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>17.7</v>
+      </c>
+      <c r="F20" s="16">
+        <v>611.79999999999995</v>
+      </c>
+      <c r="G20" s="16">
+        <v>-40.4</v>
+      </c>
+      <c r="H20" s="12">
         <v>571.4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="I20" s="16">
         <v>2023</v>
       </c>
-      <c r="F20" s="1">
+      <c r="J20" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="19">
         <v>1</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="19">
         <v>2</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="19">
         <v>5</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+    <row r="127" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A127" s="19">
         <v>1</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+    <row r="128" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A128" s="19">
         <v>2</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A129" s="19">
         <v>3</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A130" s="19">
         <v>4</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A131" s="19">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A132" s="19">
         <v>6</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+    <row r="133" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A133" s="19">
         <v>7</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A134" s="19">
         <v>8</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A135" s="19">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1586,52 +1904,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>7522.95</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>14823.13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>7668.98</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>507.5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>33.9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>525.6</v>
       </c>
       <c r="I2" s="1">
@@ -1640,29 +1958,29 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>7588.24</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>18121.330000000002</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>7641.2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>499.9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>32.200000000000003</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <v>525.6</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G21" si="0">H3-H2</f>
         <v>-5.8999999999999773</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>519.70000000000005</v>
       </c>
       <c r="I3" s="1">
@@ -1671,29 +1989,29 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>7655.66</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>21240.79</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>7385.16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>492.3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>30.5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>519.70000000000005</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>26.699999999999932</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>546.4</v>
       </c>
       <c r="I4" s="1">
@@ -1702,29 +2020,29 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>7723.13</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>25988.36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>7362.79</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>484.7</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>28.8</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>546.4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>11.899999999999977</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>558.29999999999995</v>
       </c>
       <c r="I5" s="1">
@@ -1733,29 +2051,29 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>7762.48</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>30945.45</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>7494.85</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>477.1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>27.1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>558.29999999999995</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>558.29999999999995</v>
       </c>
       <c r="I6" s="1">
@@ -1764,29 +2082,29 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>7810.27</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>34471.67</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>7542.63</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>469.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>25.4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>558.29999999999995</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>-9.0999999999999091</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>549.20000000000005</v>
       </c>
       <c r="I7" s="1">
@@ -1795,29 +2113,29 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7869.34</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>41383.870000000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>7616.96</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>463</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>24</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>549.20000000000005</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>552.20000000000005</v>
       </c>
       <c r="I8" s="1">
@@ -1826,29 +2144,29 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8022.99</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>48839.21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>7646.43</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>461</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>22</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>552.20000000000005</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>556.20000000000005</v>
       </c>
       <c r="I9" s="1">
@@ -1857,29 +2175,29 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8119.81</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>53701.919999999998</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>7651.38</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>430</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>19</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>556.20000000000005</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>552.20000000000005</v>
       </c>
       <c r="I10" s="1">
@@ -1888,29 +2206,29 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>8192.44</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>59349.41</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>7661</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>448</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>19.3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="15">
         <v>552.20000000000005</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>-53.300000000000068</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>498.9</v>
       </c>
       <c r="I11" s="1">
@@ -1919,29 +2237,29 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8281.09</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>64830.51</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>7672.27</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>433.3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>17.399999999999999</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>498.9</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>-18.199999999999989</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>480.7</v>
       </c>
       <c r="I12" s="1">
@@ -1950,29 +2268,29 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>8315.11</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>71255.929999999993</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>7737.75</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>402</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>16.5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>480.7</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>-20.099999999999966</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>460.6</v>
       </c>
       <c r="I13" s="1">
@@ -1981,29 +2299,29 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>8381.4699999999993</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>77350.850000000006</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>7639.92</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>410</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>41.2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>460.6</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>-7.4000000000000341</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>453.2</v>
       </c>
       <c r="I14" s="1">
@@ -2012,29 +2330,29 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>8423.5</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>85869.759999999995</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>7556.4</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>427</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>36.700000000000003</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="15">
         <v>453.2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>12.699999999999989</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>465.9</v>
       </c>
       <c r="I15" s="1">
@@ -2043,29 +2361,29 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>8446.19</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>93207.55</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>7520.23</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>429</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>34.200000000000003</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>465.9</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>-5.6999999999999886</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>460.2</v>
       </c>
       <c r="I16" s="1">
@@ -2074,29 +2392,29 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>8469.09</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>98656.82</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>7442.63</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>474.7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>32.4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>460.2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>33.199999999999989</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>493.4</v>
       </c>
       <c r="I17" s="1">
@@ -2105,29 +2423,29 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>8477.26</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>102807.67999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>7478.39</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>423.1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>31.1</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>493.4</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>-40.699999999999989</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>452.7</v>
       </c>
       <c r="I18" s="1">
@@ -2136,29 +2454,29 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>8505.4</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>117392.36</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>7514.45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>395.1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <v>452.7</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>114.90000000000003</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>567.6</v>
       </c>
       <c r="I19" s="1">
@@ -2167,29 +2485,29 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>8515</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>122089.28</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>7534.24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>476.1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>17.8</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>567.6</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>44.199999999999932</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>611.79999999999995</v>
       </c>
       <c r="I20" s="1">
@@ -2198,29 +2516,29 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>8526</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>128222.16</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>7589.96</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>400.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>17.7</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="15">
         <v>611.79999999999995</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>-40.399999999999977</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>571.4</v>
       </c>
       <c r="I21" s="1">
